--- a/testData/testOutput.xlsx
+++ b/testData/testOutput.xlsx
@@ -8,29 +8,429 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303976\eclipse-workspace\display-bookshelves\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D636308-D4B9-453C-A067-FBEDADE5D60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB74A8B-1228-4BAC-B0E4-A5D3FC973CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Error Message" sheetId="1" r:id="rId1"/>
+    <sheet name="Bookshelves" sheetId="2" r:id="rId2"/>
+    <sheet name="Submenu" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="131">
   <si>
     <t>Please include an '@' in the email address. 'youremail.com' is missing an '@'.</t>
   </si>
   <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>₹14,256</t>
+  </si>
+  <si>
+    <t>₹9,975</t>
+  </si>
+  <si>
+    <t>Lounge Chairs</t>
+  </si>
+  <si>
+    <t>Accent Chairs</t>
+  </si>
+  <si>
+    <t>Recliners</t>
+  </si>
+  <si>
+    <t>Sofa Cum Bed</t>
+  </si>
+  <si>
+    <t>UL Assured Picks</t>
+  </si>
+  <si>
+    <t>Ottomans &amp; Stools</t>
+  </si>
+  <si>
+    <t>Bean Bags</t>
+  </si>
+  <si>
+    <t>Benches</t>
+  </si>
+  <si>
+    <t>Bar Stools</t>
+  </si>
+  <si>
+    <t>Rocking Chairs</t>
+  </si>
+  <si>
+    <t>Gaming Chairs</t>
+  </si>
+  <si>
+    <t>Wall E Engineered Wood Kids Bookshelf In Silver Grey Colour</t>
+  </si>
+  <si>
+    <t>Ochre Solid Wood Kids Bookshelf In Natural Colour</t>
+  </si>
+  <si>
+    <t>Ochre Solid Wood Kids Bookshelf In Pink Colour</t>
+  </si>
+  <si>
+    <t>Ochre Solid Wood Kids Bookshelf In White Colour</t>
+  </si>
+  <si>
+    <t>Ochre Solid Wood Kids Bookshelf In Green Colour</t>
+  </si>
+  <si>
+    <t>By Boingg! - A Happy Start</t>
+  </si>
+  <si>
+    <t>By X&amp;Y</t>
+  </si>
+  <si>
+    <t>Cyno Solid Wood Bookshelf In Honey Finish</t>
+  </si>
+  <si>
+    <t>Jarrah Solid Wood Bookshelf In Natural &amp; Stone Veneer Finish</t>
+  </si>
+  <si>
+    <t>Fujiwara Bookshelf/Display Cabinet</t>
+  </si>
+  <si>
+    <t>Malabar Bookshelf/Display Cabinet</t>
+  </si>
+  <si>
+    <t>Malabar Solid Wood Bookshelf In Amber Walnut Finish</t>
+  </si>
+  <si>
+    <t>Malabar Solid Wood Bookshelf In Mango Mahogany Finish</t>
+  </si>
+  <si>
+    <t>Keoni Solid Wood Bookshelf In Claret Mahogany Finish</t>
+  </si>
+  <si>
+    <t>Gaku Solid Wood Bookshelf In Semi Gloss Finish</t>
+  </si>
+  <si>
+    <t>Iwaki Bookshelf/Display Cabinet With Glass Door</t>
+  </si>
+  <si>
+    <t>Murano Solid Wood Bookshelf/Display Unit</t>
+  </si>
+  <si>
+    <t>Faye Solid Wood Bookshelf In Natural White Ash Finish</t>
+  </si>
+  <si>
+    <t>Carnegie Solid Wood Bookshelf In Amber Walnut Finish</t>
+  </si>
+  <si>
+    <t>Theodore Engineered Wood Bookshelf In Rustic Walnut Finish</t>
+  </si>
+  <si>
+    <t>Vector Solid Wood Bookshelf In Teak Finish</t>
+  </si>
+  <si>
+    <t>Olee Solid Wood Bookshelf In Natural &amp; Metal White Finish</t>
+  </si>
+  <si>
+    <t>Alberto Solid Wood Bookshelf In Mahogany Finish</t>
+  </si>
+  <si>
+    <t>Alberto Solid Wood Bookshelf In Teak Finish</t>
+  </si>
+  <si>
+    <t>Melman - The Giraffe Bookshelf</t>
+  </si>
+  <si>
+    <t>Chandani Solid Wood Sideboard In Brown Finish</t>
+  </si>
+  <si>
+    <t>Emerlane Solid Wood Bookshelf In Teak Finish</t>
+  </si>
+  <si>
+    <t>Emerlane Solid Wood Bookshelf In Mahogany Finish</t>
+  </si>
+  <si>
+    <t>Zag Solid Wood Bookshelf In Melamine Finish</t>
+  </si>
+  <si>
+    <t>Mateo Solid Wood Bookshelf In Mahogany Finish</t>
+  </si>
+  <si>
+    <t>Mateo Solid Wood Bookshelf In Teak Finish</t>
+  </si>
+  <si>
+    <t>Ladwing Solid Wood Bookshelf In Melamine Finish</t>
+  </si>
+  <si>
+    <t>By The Home Dekor</t>
+  </si>
+  <si>
+    <t>By Urban Ladder</t>
+  </si>
+  <si>
+    <t>By Saffron Art</t>
+  </si>
+  <si>
+    <t>Aara Craft By Urban Ladder</t>
+  </si>
+  <si>
+    <t>₹43,680</t>
+  </si>
+  <si>
+    <t>₹38,220</t>
+  </si>
+  <si>
+    <t>₹36,724</t>
+  </si>
+  <si>
+    <t>₹34,649</t>
+  </si>
+  <si>
+    <t>₹30,886</t>
+  </si>
+  <si>
+    <t>₹29,669</t>
+  </si>
+  <si>
+    <t>₹28,119</t>
+  </si>
+  <si>
+    <t>₹25,861</t>
+  </si>
+  <si>
+    <t>₹24,897</t>
+  </si>
+  <si>
+    <t>₹24,767</t>
+  </si>
+  <si>
+    <t>₹22,859</t>
+  </si>
+  <si>
+    <t>₹22,457</t>
+  </si>
+  <si>
+    <t>₹22,439</t>
+  </si>
+  <si>
+    <t>₹20,930</t>
+  </si>
+  <si>
+    <t>₹20,922</t>
+  </si>
+  <si>
+    <t>₹20,371</t>
+  </si>
+  <si>
+    <t>₹19,061</t>
+  </si>
+  <si>
+    <t>₹17,463</t>
+  </si>
+  <si>
+    <t>₹17,108</t>
+  </si>
+  <si>
+    <t>₹17,018</t>
+  </si>
+  <si>
+    <t>₹16,744</t>
+  </si>
+  <si>
+    <t>Elliot Engineered Wood Bookshelf In Californian Walnut Finish</t>
+  </si>
+  <si>
+    <t>Elliot Engineered Wood Bookshelf In Classic Walnut Finish</t>
+  </si>
+  <si>
+    <t>Rhodes Solid Wood Bookshelf In Mahogany Finish</t>
+  </si>
+  <si>
+    <t>Rhodes Solid Wood Bookshelf In Teak Finish</t>
+  </si>
+  <si>
+    <t>Norland Engineered Wood Bookshelf In Columbian Walnut Finish</t>
+  </si>
+  <si>
+    <t>Marble Engineered Wood Bookshelf In Walnut Finish</t>
+  </si>
+  <si>
+    <t>Andreas Room Divider</t>
+  </si>
+  <si>
+    <t>Kassel Solid Wood Bookshelf In Lacquered Finish</t>
+  </si>
+  <si>
+    <t>Austen Solid Wood Bookshelf In Mahogany Finish</t>
+  </si>
+  <si>
+    <t>Austen Solid Wood Bookshelf In Teak Finish</t>
+  </si>
+  <si>
+    <t>Hilda Engineered Wood Bookshelf In Espresso Finish</t>
+  </si>
+  <si>
+    <t>Armstrong Engineered Wood Bookshelf In Laminate Finish</t>
+  </si>
+  <si>
+    <t>Darcia Engineered Wood Bookshelf In Rustic Walnut Finish</t>
+  </si>
+  <si>
+    <t>Alex Engineered Wood Bookshelf In Wenge Finish</t>
+  </si>
+  <si>
+    <t>Rustic Engineered Wood Bookshelf In Asian Walnut Finish</t>
+  </si>
+  <si>
+    <t>Rustic Engineered Wood Bookshelf In Teak &amp; Frosty White Finish</t>
+  </si>
+  <si>
+    <t>Dolah Bamboo Bookshelf In Polished Finish</t>
+  </si>
+  <si>
+    <t>Tic Tac Solid Wood Wall Shelf</t>
+  </si>
+  <si>
+    <t>Alex Engineered Wood Bookshelf In Walnut Finish</t>
+  </si>
+  <si>
+    <t>By A Globia Creations</t>
+  </si>
+  <si>
+    <t>By Ikiriya</t>
+  </si>
+  <si>
+    <t>By Bluewud</t>
+  </si>
+  <si>
+    <t>By Bahcane</t>
+  </si>
+  <si>
+    <t>₹15,127</t>
+  </si>
+  <si>
+    <t>₹15,039</t>
+  </si>
+  <si>
+    <t>₹14,755</t>
+  </si>
+  <si>
+    <t>₹12,814</t>
+  </si>
+  <si>
+    <t>₹11,910</t>
+  </si>
+  <si>
+    <t>₹10,980</t>
+  </si>
+  <si>
+    <t>₹10,114</t>
+  </si>
+  <si>
+    <t>₹9,998</t>
+  </si>
+  <si>
+    <t>₹9,203</t>
+  </si>
+  <si>
+    <t>₹8,790</t>
+  </si>
+  <si>
+    <t>₹8,399</t>
+  </si>
+  <si>
+    <t>₹7,868</t>
+  </si>
+  <si>
+    <t>₹7,299</t>
+  </si>
+  <si>
+    <t>₹7,075</t>
+  </si>
+  <si>
+    <t>₹7,049</t>
+  </si>
+  <si>
+    <t>₹6,999</t>
+  </si>
+  <si>
+    <t>₹6,892</t>
+  </si>
+  <si>
+    <t>₹6,535</t>
+  </si>
+  <si>
+    <t>₹5,823</t>
+  </si>
+  <si>
+    <t>Saylor Solid Wood Bookshelf In Walnut Finish</t>
+  </si>
+  <si>
+    <t>Slumppy Solid Wood Bookshelf In Melamine Finish</t>
+  </si>
+  <si>
+    <t>Paxton Solid Wood Bookshelf In Teak Finish</t>
+  </si>
+  <si>
+    <t>Paxton Solid Wood Bookshelf In Mahogany Finish</t>
+  </si>
+  <si>
+    <t>By Evok</t>
+  </si>
+  <si>
+    <t>₹9,740</t>
+  </si>
+  <si>
+    <t>₹7,523</t>
+  </si>
+  <si>
+    <t>₹6,961</t>
+  </si>
+  <si>
+    <t>Please fill in this field.</t>
+  </si>
+  <si>
+    <t>Johar Solid Wood Sideboard In Blue Finish</t>
+  </si>
+  <si>
+    <t>By Saffron Art &amp; Crafts</t>
+  </si>
+  <si>
+    <t>₹15,834</t>
+  </si>
+  <si>
+    <t>₹15,430</t>
   </si>
 </sst>
 </file>
@@ -358,9 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -377,4 +775,289 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717B2349-2F60-4A27-92BD-258547BFB70A}">
+  <dimension ref="A1:C56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="55.39453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.5078125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.27734375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="s" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="s" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="s" s="0">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="s" s="0">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="s" s="0">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5534C8-8E8A-4A0E-A89A-415C574DEF08}">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.8828125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>